--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint_2_PlanPrueba.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint_2_PlanPrueba.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
   <si>
     <t xml:space="preserve">Plantilla de Pruebas Ágiles </t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>No se pudo probar el envío de notificaciones. El estado del evento sí cambia correctamente a “Cancelado” en pantalla.</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>Pendiente de implementación. 
@@ -724,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -814,11 +811,14 @@
     <xf borderId="13" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="23" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,7 +888,7 @@
     <xdr:ext cx="2447925" cy="5334000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -944,7 +944,7 @@
     <xdr:ext cx="3076575" cy="5276850"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1028,7 +1028,7 @@
     <xdr:ext cx="2819400" cy="5762625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1084,7 +1084,7 @@
     <xdr:ext cx="2952750" cy="6029325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1112,7 +1112,7 @@
     <xdr:ext cx="3028950" cy="4933950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1168,7 +1168,7 @@
     <xdr:ext cx="2609850" cy="4124325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1196,7 +1196,7 @@
     <xdr:ext cx="3286125" cy="4933950"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1224,7 +1224,7 @@
     <xdr:ext cx="2819400" cy="4857750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1873,13 +1873,13 @@
         <v>40</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1907,16 +1907,16 @@
         <v>45940.0</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="E13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="F13" s="34" t="s">
         <v>45</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>46</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>25</v>
@@ -1925,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1953,16 +1953,16 @@
         <v>45940.0</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="E14" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="F14" s="34" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>51</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>25</v>
@@ -1999,16 +1999,16 @@
         <v>45940.0</v>
       </c>
       <c r="C15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="E15" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="F15" s="34" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>55</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>25</v>
@@ -2045,16 +2045,16 @@
         <v>45940.0</v>
       </c>
       <c r="C16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="E16" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="F16" s="34" t="s">
         <v>58</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>59</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>25</v>
@@ -2091,16 +2091,16 @@
         <v>45940.0</v>
       </c>
       <c r="C17" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="E17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="F17" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>63</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>25</v>
@@ -2137,16 +2137,16 @@
         <v>45940.0</v>
       </c>
       <c r="C18" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="E18" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="F18" s="34" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>67</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>25</v>
@@ -2155,7 +2155,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2183,16 +2183,16 @@
         <v>45940.0</v>
       </c>
       <c r="C19" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="E19" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="F19" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>72</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>25</v>
@@ -2201,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2229,25 +2229,25 @@
         <v>45940.0</v>
       </c>
       <c r="C20" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="E20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>77</v>
-      </c>
       <c r="G20" s="39" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2275,16 +2275,16 @@
         <v>45940.0</v>
       </c>
       <c r="C21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="E21" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="F21" s="34" t="s">
         <v>81</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>82</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>25</v>
@@ -2321,18 +2321,18 @@
         <v>45940.0</v>
       </c>
       <c r="C22" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="E22" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="F22" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="41" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="36" t="s">
@@ -2367,25 +2367,25 @@
         <v>45940.0</v>
       </c>
       <c r="C23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="E23" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="F23" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>90</v>
-      </c>
       <c r="G23" s="39" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2413,18 +2413,18 @@
         <v>45940.0</v>
       </c>
       <c r="C24" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="E24" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="F24" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="41" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="36" t="s">
@@ -2459,16 +2459,16 @@
         <v>45940.0</v>
       </c>
       <c r="C25" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="E25" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="F25" s="34" t="s">
         <v>98</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>99</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>25</v>
@@ -2502,14 +2502,14 @@
     </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="20.25" customHeight="1">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
@@ -3524,7 +3524,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="33"/>
-      <c r="C1" s="44"/>
+      <c r="C1" s="45"/>
       <c r="E1" s="33"/>
     </row>
     <row r="34">
@@ -3533,22 +3533,22 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="45"/>
+      <c r="A38" s="46"/>
     </row>
     <row r="62">
-      <c r="A62" s="45"/>
+      <c r="A62" s="46"/>
     </row>
     <row r="66">
       <c r="A66" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="45"/>
+      <c r="A84" s="46"/>
     </row>
     <row r="90">
       <c r="A90" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91">
@@ -3556,60 +3556,60 @@
     </row>
     <row r="97">
       <c r="A97" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E97" s="33"/>
     </row>
     <row r="110">
-      <c r="A110" s="45"/>
+      <c r="A110" s="46"/>
     </row>
     <row r="132">
       <c r="A132" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="45"/>
+      <c r="A157" s="46"/>
     </row>
     <row r="171">
       <c r="A171" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="45"/>
+      <c r="A198" s="46"/>
     </row>
     <row r="202">
       <c r="A202" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="45"/>
-      <c r="B221" s="45"/>
+      <c r="A221" s="46"/>
+      <c r="B221" s="46"/>
     </row>
     <row r="228">
       <c r="A228" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="45"/>
+      <c r="A239" s="46"/>
     </row>
     <row r="260">
-      <c r="A260" s="45"/>
+      <c r="A260" s="46"/>
     </row>
     <row r="277">
-      <c r="A277" s="45"/>
-      <c r="F277" s="45"/>
-      <c r="G277" s="45"/>
+      <c r="A277" s="46"/>
+      <c r="F277" s="46"/>
+      <c r="G277" s="46"/>
     </row>
     <row r="319">
-      <c r="A319" s="45"/>
-      <c r="B319" s="45"/>
+      <c r="A319" s="46"/>
+      <c r="B319" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
